--- a/ANOVA_Stat/all_responses_anova_results.xlsx
+++ b/ANOVA_Stat/all_responses_anova_results.xlsx
@@ -1,42 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RL_ANOVA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RL_LSD" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RL_Means" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SL_ANOVA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SL_LSD" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SL_Means" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RFW_ANOVA" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RFW_LSD" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RFW_Means" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFW_ANOVA" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFW_LSD" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFW_Means" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RDW_ANOVA" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RDW_LSD" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RDW_Means" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDW_ANOVA" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDW_LSD" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDW_Means" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_a_ANOVA" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_a_LSD" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_a_Means" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_b_ANOVA" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_b_LSD" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_b_Means" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC_content_ANOVA" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC_content_LSD" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC_content_Means" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Caroteniods_ANOVA" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Caroteniods_LSD" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Caroteniods_Means" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="RL_ANOVA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RL_LSD" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RL_Means" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SL_ANOVA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SL_LSD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SL_Means" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RFW_ANOVA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="RFW_LSD" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="RFW_Means" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SFW_ANOVA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SFW_LSD" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SFW_Means" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="RDW_ANOVA" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="RDW_LSD" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="RDW_Means" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SDW_ANOVA" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="SDW_LSD" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="SDW_Means" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Chl_a_ANOVA" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Chl_a_LSD" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Chl_a_Means" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Chl_b_ANOVA" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Chl_b_LSD" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Chl_b_Means" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="TC_content_ANOVA" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="TC_content_LSD" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="TC_content_Means" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Caroteniods_ANOVA" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Caroteniods_LSD" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Caroteniods_Means" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.724999999997</v>
+        <v>1282.724999999993</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1449.406779661015</v>
+        <v>1449.406779661011</v>
       </c>
       <c r="E2" t="n">
-        <v>3.030070540729161e-34</v>
+        <v>3.0300705407293e-34</v>
       </c>
       <c r="F2" t="n">
-        <v>3.030070540729161e-34</v>
+        <v>3.0300705407293e-34</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.9999999999974</v>
+        <v>362.9999999999988</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1230.508474576263</v>
+        <v>1230.508474576268</v>
       </c>
       <c r="E3" t="n">
-        <v>4.110236190107538e-27</v>
+        <v>4.110236190107294e-27</v>
       </c>
       <c r="F3" t="n">
-        <v>4.110236190107538e-27</v>
+        <v>4.110236190107294e-27</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>9367.347457627133</v>
+        <v>9367.347457627135</v>
       </c>
       <c r="E4" t="n">
-        <v>4.565685558455381e-41</v>
+        <v>4.565685558455371e-41</v>
       </c>
       <c r="F4" t="n">
-        <v>4.565685558455381e-41</v>
+        <v>4.565685558455371e-41</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.85499999999971</v>
+        <v>24.85499999999989</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>28.08474576271155</v>
+        <v>28.08474576271176</v>
       </c>
       <c r="E5" t="n">
-        <v>4.317301782271846e-09</v>
+        <v>4.317301782271488e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>4.317301782271846e-09</v>
+        <v>4.317301782271488e-09</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,19 +609,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.537499999999878</v>
+        <v>4.537500000000055</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5.127118644067662</v>
+        <v>5.127118644067862</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005216691538383274</v>
+        <v>0.005216691538382271</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005216691538383274</v>
+        <v>0.005216691538382271</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.187499999999886</v>
+        <v>9.187499999999854</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1440677966098</v>
+        <v>31.1440677966097</v>
       </c>
       <c r="E7" t="n">
-        <v>3.666294644518959e-06</v>
+        <v>3.666294644519051e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>3.666294644518959e-06</v>
+        <v>3.666294644519051e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -663,19 +663,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.13750000000014</v>
+        <v>17.13750000000022</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>19.36440677966119</v>
+        <v>19.36440677966128</v>
       </c>
       <c r="E8" t="n">
-        <v>2.417726818189627e-07</v>
+        <v>2.41772681818952e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>2.417726818189627e-07</v>
+        <v>2.41772681818952e-07</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.439999999999994</v>
+        <v>9.439999999999992</v>
       </c>
       <c r="C9" t="n">
         <v>32</v>
@@ -768,13 +768,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>208.2923976608183</v>
+        <v>208.2923976608182</v>
       </c>
       <c r="E2" t="n">
-        <v>4.538865482016023e-21</v>
+        <v>4.538865482016044e-21</v>
       </c>
       <c r="F2" t="n">
-        <v>4.538865482016023e-21</v>
+        <v>4.538865482016044e-21</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -789,19 +789,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8426999999999959</v>
+        <v>0.8426999999999982</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>394.2456140350859</v>
+        <v>394.2456140350869</v>
       </c>
       <c r="E3" t="n">
-        <v>1.478185838874796e-19</v>
+        <v>1.478185838874739e-19</v>
       </c>
       <c r="F3" t="n">
-        <v>1.478185838874796e-19</v>
+        <v>1.478185838874739e-19</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.244675000000009</v>
+        <v>2.244674999999998</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1050.140350877198</v>
+        <v>1050.140350877192</v>
       </c>
       <c r="E4" t="n">
-        <v>4.852489362517821e-26</v>
+        <v>4.852489362518194e-26</v>
       </c>
       <c r="F4" t="n">
-        <v>4.852489362517821e-26</v>
+        <v>4.852489362518194e-26</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -843,19 +843,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02804999999999959</v>
+        <v>0.02804999999999973</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.37426900584789</v>
+        <v>4.374269005847911</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01088350955961814</v>
+        <v>0.01088350955961791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01088350955961814</v>
+        <v>0.01088350955961791</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -870,19 +870,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02587500000000015</v>
+        <v>0.02587499999999998</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.03508771929827</v>
+        <v>4.035087719298243</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0153060158698895</v>
+        <v>0.01530601586988994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0153060158698895</v>
+        <v>0.01530601586988994</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002699999999999918</v>
+        <v>0.002699999999999896</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.263157894736804</v>
+        <v>1.263157894736794</v>
       </c>
       <c r="E7" t="n">
-        <v>0.269415001840102</v>
+        <v>0.2694150018401043</v>
       </c>
       <c r="F7" t="n">
-        <v>0.269415001840102</v>
+        <v>0.2694150018401043</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00704999999999993</v>
+        <v>0.007049999999999882</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.099415204678352</v>
+        <v>1.099415204678344</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3636627978423203</v>
+        <v>0.3636627978423226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3636627978423203</v>
+        <v>0.3636627978423226</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1468,19 +1468,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.003867562499999998</v>
+        <v>0.003867562499999983</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>63.86068111455106</v>
+        <v>63.8606811145508</v>
       </c>
       <c r="E2" t="n">
-        <v>1.331904507480698e-13</v>
+        <v>1.331904507480768e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.331904507480698e-13</v>
+        <v>1.331904507480768e-13</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1495,19 +1495,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00231018749999999</v>
+        <v>0.002310187499999993</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>114.4365325077394</v>
+        <v>114.4365325077396</v>
       </c>
       <c r="E3" t="n">
-        <v>4.246372717839131e-12</v>
+        <v>4.246372717839036e-12</v>
       </c>
       <c r="F3" t="n">
-        <v>4.246372717839131e-12</v>
+        <v>4.246372717839036e-12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1522,19 +1522,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008347687500000025</v>
+        <v>0.008347687500000017</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>413.5077399380817</v>
+        <v>413.5077399380813</v>
       </c>
       <c r="E4" t="n">
-        <v>7.275968483402225e-20</v>
+        <v>7.275968483402338e-20</v>
       </c>
       <c r="F4" t="n">
-        <v>7.275968483402225e-20</v>
+        <v>7.275968483402338e-20</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1549,19 +1549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001235624999999991</v>
+        <v>0.0001235624999999997</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.040247678018561</v>
+        <v>2.040247678018571</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1279363381950831</v>
+        <v>0.1279363381950814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1279363381950831</v>
+        <v>0.1279363381950814</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.10624999999997e-05</v>
+        <v>1.10625000000001e-05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1826625386996855</v>
+        <v>0.1826625386996922</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9073909521216295</v>
+        <v>0.9073909521216246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9073909521216295</v>
+        <v>0.9073909521216246</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1603,19 +1603,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000346687499999999</v>
+        <v>0.0003466874999999987</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>17.17337461300305</v>
+        <v>17.17337461300303</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002332476346103984</v>
+        <v>0.0002332476346103997</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002332476346103984</v>
+        <v>0.0002332476346103997</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1630,19 +1630,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.006250000000005e-05</v>
+        <v>2.006250000000003e-05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3312693498452021</v>
+        <v>0.3312693498452017</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8027654267313503</v>
+        <v>0.8027654267313521</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8027654267313503</v>
+        <v>0.8027654267313521</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2_1_2</t>
+          <t>4_2_1</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4_2_1</t>
+          <t>2_1_2</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,19 +2174,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.249675</v>
+        <v>0.2496749999999996</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>44.83501683501682</v>
+        <v>44.83501683501675</v>
       </c>
       <c r="E2" t="n">
-        <v>1.447811565106829e-11</v>
+        <v>1.447811565106855e-11</v>
       </c>
       <c r="F2" t="n">
-        <v>1.447811565106829e-11</v>
+        <v>1.447811565106855e-11</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2201,19 +2201,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03307499999999995</v>
+        <v>0.03307499999999977</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>17.81818181818179</v>
+        <v>17.81818181818169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001874198073783608</v>
+        <v>0.0001874198073783667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001874198073783608</v>
+        <v>0.0001874198073783667</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2228,19 +2228,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2790750000000017</v>
+        <v>0.2790750000000001</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>150.3434343434352</v>
+        <v>150.3434343434344</v>
       </c>
       <c r="E4" t="n">
-        <v>1.239803925189218e-13</v>
+        <v>1.239803925189315e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.239803925189218e-13</v>
+        <v>1.239803925189315e-13</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002774999999999968</v>
+        <v>0.002774999999999983</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4983164983164924</v>
+        <v>0.4983164983164952</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6860767040346776</v>
+        <v>0.6860767040346758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6860767040346776</v>
+        <v>0.6860767040346758</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2282,19 +2282,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003074999999999984</v>
+        <v>0.003075000000000007</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5521885521885492</v>
+        <v>0.5521885521885534</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6503728077597197</v>
+        <v>0.6503728077597164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6503728077597197</v>
+        <v>0.6503728077597164</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006075000000000023</v>
+        <v>0.006075000000000053</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3.272727272727285</v>
+        <v>3.272727272727301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07984435190893424</v>
+        <v>0.07984435190893349</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07984435190893424</v>
+        <v>0.07984435190893349</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003750000000000063</v>
+        <v>0.0003750000000000087</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06734006734006846</v>
+        <v>0.06734006734006891</v>
       </c>
       <c r="E8" t="n">
         <v>0.976861250099844</v>
@@ -2880,19 +2880,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91810.49999999952</v>
+        <v>91810.49999999923</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>746.4268292682888</v>
+        <v>746.4268292682864</v>
       </c>
       <c r="E2" t="n">
-        <v>1.10574570041787e-29</v>
+        <v>1.105745700417926e-29</v>
       </c>
       <c r="F2" t="n">
-        <v>1.10574570041787e-29</v>
+        <v>1.105745700417926e-29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2907,19 +2907,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123626.9999999999</v>
+        <v>123627.0000000006</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3015.292682926826</v>
+        <v>3015.292682926843</v>
       </c>
       <c r="E3" t="n">
-        <v>3.075406568731345e-33</v>
+        <v>3.075406568731077e-33</v>
       </c>
       <c r="F3" t="n">
-        <v>3.075406568731345e-33</v>
+        <v>3.075406568731077e-33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2934,19 +2934,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155952.0000000007</v>
+        <v>155951.9999999993</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3803.707317073187</v>
+        <v>3803.707317073154</v>
       </c>
       <c r="E4" t="n">
-        <v>7.736717895735975e-35</v>
+        <v>7.736717895737056e-35</v>
       </c>
       <c r="F4" t="n">
-        <v>7.736717895735975e-35</v>
+        <v>7.736717895737056e-35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8155.499999999971</v>
+        <v>8155.499999999989</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>66.30487804878025</v>
+        <v>66.3048780487804</v>
       </c>
       <c r="E5" t="n">
-        <v>7.967308535863303e-14</v>
+        <v>7.967308535863049e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>7.967308535863303e-14</v>
+        <v>7.967308535863049e-14</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158.499999999977</v>
+        <v>2158.500000000025</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>17.54878048780469</v>
+        <v>17.54878048780509</v>
       </c>
       <c r="E6" t="n">
-        <v>6.450711446223603e-07</v>
+        <v>6.45071144622219e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>6.450711446223603e-07</v>
+        <v>6.45071144622219e-07</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3015,19 +3015,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1452.000000000017</v>
+        <v>1452.000000000028</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>35.41463414634188</v>
+        <v>35.41463414634216</v>
       </c>
       <c r="E7" t="n">
-        <v>1.25081556916769e-06</v>
+        <v>1.250815569167604e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>1.25081556916769e-06</v>
+        <v>1.250815569167604e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3042,19 +3042,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2818.500000000015</v>
+        <v>2818.500000000024</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>22.91463414634158</v>
+        <v>22.91463414634166</v>
       </c>
       <c r="E8" t="n">
-        <v>4.151701108180634e-08</v>
+        <v>4.151701108180485e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>4.151701108180634e-08</v>
+        <v>4.151701108180485e-08</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9033211855818009</v>
+        <v>0.9033211855818007</v>
       </c>
       <c r="B2" t="n">
         <v>0.05</v>
@@ -3649,19 +3649,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67080.74999999968</v>
+        <v>67080.74999999942</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>559.8810641627516</v>
+        <v>559.8810641627495</v>
       </c>
       <c r="E2" t="n">
-        <v>1.019575878926549e-27</v>
+        <v>1.019575878926612e-27</v>
       </c>
       <c r="F2" t="n">
-        <v>1.019575878926549e-27</v>
+        <v>1.019575878926612e-27</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3676,19 +3676,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242820.7499999997</v>
+        <v>242820.7500000004</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6080.018779342714</v>
+        <v>6080.018779342732</v>
       </c>
       <c r="E3" t="n">
-        <v>4.471880072190091e-38</v>
+        <v>4.471880072189877e-38</v>
       </c>
       <c r="F3" t="n">
-        <v>4.471880072190091e-38</v>
+        <v>4.471880072189877e-38</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3703,19 +3703,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167796.7500000006</v>
+        <v>167796.7499999999</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4201.483568075133</v>
+        <v>4201.483568075116</v>
       </c>
       <c r="E4" t="n">
-        <v>1.59498522839166e-35</v>
+        <v>1.594985228391763e-35</v>
       </c>
       <c r="F4" t="n">
-        <v>1.59498522839166e-35</v>
+        <v>1.594985228391763e-35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3730,19 +3730,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2616.749999999984</v>
+        <v>2616.749999999992</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>21.84037558685433</v>
+        <v>21.84037558685439</v>
       </c>
       <c r="E5" t="n">
-        <v>6.935245996261444e-08</v>
+        <v>6.935245996261222e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>6.935245996261444e-08</v>
+        <v>6.935245996261222e-08</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3757,19 +3757,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4350.749999999981</v>
+        <v>4350.750000000028</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>36.31298904538325</v>
+        <v>36.31298904538365</v>
       </c>
       <c r="E6" t="n">
-        <v>2.042543500267637e-10</v>
+        <v>2.042543500267363e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>2.042543500267637e-10</v>
+        <v>2.042543500267363e-10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3784,19 +3784,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2610.750000000027</v>
+        <v>2610.750000000029</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>65.37089201878001</v>
+        <v>65.37089201878005</v>
       </c>
       <c r="E7" t="n">
-        <v>3.118699250487747e-09</v>
+        <v>3.118699250487721e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>3.118699250487747e-09</v>
+        <v>3.118699250487721e-09</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3811,19 +3811,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3606.750000000009</v>
+        <v>3606.750000000018</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>30.1032863849766</v>
+        <v>30.10328638497668</v>
       </c>
       <c r="E8" t="n">
-        <v>1.932410601520162e-09</v>
+        <v>1.932410601520103e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>1.932410601520162e-09</v>
+        <v>1.932410601520103e-09</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4355,19 +4355,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233978.9999999985</v>
+        <v>233978.9999999976</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1990.251993620402</v>
+        <v>1990.251993620395</v>
       </c>
       <c r="E2" t="n">
-        <v>1.959670362424235e-36</v>
+        <v>1.959670362424347e-36</v>
       </c>
       <c r="F2" t="n">
-        <v>1.959670362424235e-36</v>
+        <v>1.959670362424347e-36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4382,19 +4382,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>724716.7500000002</v>
+        <v>724716.7500000028</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>18493.56937799044</v>
+        <v>18493.5693779905</v>
       </c>
       <c r="E3" t="n">
-        <v>8.797932537120436e-46</v>
+        <v>8.797932537119924e-46</v>
       </c>
       <c r="F3" t="n">
-        <v>8.797932537120436e-46</v>
+        <v>8.797932537119924e-46</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4409,19 +4409,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679728.0000000023</v>
+        <v>679727.9999999997</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>17345.53110047853</v>
+        <v>17345.53110047846</v>
       </c>
       <c r="E4" t="n">
-        <v>2.448723981985282e-45</v>
+        <v>2.448723981985439e-45</v>
       </c>
       <c r="F4" t="n">
-        <v>2.448723981985282e-45</v>
+        <v>2.448723981985439e-45</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4436,19 +4436,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6650.249999999902</v>
+        <v>6650.249999999951</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>56.56778309409805</v>
+        <v>56.56778309409847</v>
       </c>
       <c r="E5" t="n">
-        <v>6.86048423291376e-13</v>
+        <v>6.860484232913091e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>6.86048423291376e-13</v>
+        <v>6.860484232913091e-13</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4463,19 +4463,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25118.99999999986</v>
+        <v>25119.00000000021</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>213.6650717703337</v>
+        <v>213.6650717703368</v>
       </c>
       <c r="E6" t="n">
-        <v>3.081430669468806e-21</v>
+        <v>3.081430669468146e-21</v>
       </c>
       <c r="F6" t="n">
-        <v>3.081430669468806e-21</v>
+        <v>3.081430669468146e-21</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4490,19 +4490,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30906.75000000025</v>
+        <v>30906.75000000017</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>788.6889952153175</v>
+        <v>788.6889952153153</v>
       </c>
       <c r="E7" t="n">
-        <v>4.070372734170409e-24</v>
+        <v>4.070372734170572e-24</v>
       </c>
       <c r="F7" t="n">
-        <v>4.070372734170409e-24</v>
+        <v>4.070372734170572e-24</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4517,19 +4517,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19700.25000000007</v>
+        <v>19700.25000000017</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>167.5725677830947</v>
+        <v>167.5725677830955</v>
       </c>
       <c r="E8" t="n">
-        <v>1.214238450651161e-19</v>
+        <v>1.214238450651069e-19</v>
       </c>
       <c r="F8" t="n">
-        <v>1.214238450651161e-19</v>
+        <v>1.214238450651069e-19</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2_1_1</t>
+          <t>3_2_2</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3_2_2</t>
+          <t>2_1_1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5061,19 +5061,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.495624999997</v>
+        <v>1097.495624999996</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1380.497641509431</v>
+        <v>1380.49764150943</v>
       </c>
       <c r="E2" t="n">
-        <v>6.566269003654185e-34</v>
+        <v>6.566269003654269e-34</v>
       </c>
       <c r="F2" t="n">
-        <v>6.566269003654185e-34</v>
+        <v>6.566269003654269e-34</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5088,19 +5088,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.976874999999821</v>
+        <v>6.976874999999835</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>26.32783018867858</v>
+        <v>26.32783018867863</v>
       </c>
       <c r="E3" t="n">
-        <v>1.357350490337936e-05</v>
+        <v>1.357350490337913e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>1.357350490337936e-05</v>
+        <v>1.357350490337913e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5115,19 +5115,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1442.116875000007</v>
+        <v>1442.116875</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5441.950471698141</v>
+        <v>5441.950471698115</v>
       </c>
       <c r="E4" t="n">
-        <v>2.61069773869134e-37</v>
+        <v>2.610697738691538e-37</v>
       </c>
       <c r="F4" t="n">
-        <v>2.61069773869134e-37</v>
+        <v>2.610697738691538e-37</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -5142,19 +5142,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.320625000000022</v>
+        <v>6.320625000000014</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>7.950471698113238</v>
+        <v>7.950471698113226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000422501704146253</v>
+        <v>0.0004225017041462566</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000422501704146253</v>
+        <v>0.0004225017041462566</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -5169,19 +5169,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.750625000000102</v>
+        <v>2.750625000000012</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.459905660377488</v>
+        <v>3.459905660377374</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02767089173495419</v>
+        <v>0.02767089173495749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02767089173495419</v>
+        <v>0.02767089173495749</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -5196,19 +5196,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.671874999999904</v>
+        <v>5.671874999999825</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>21.4033018867921</v>
+        <v>21.40330188679179</v>
       </c>
       <c r="E7" t="n">
-        <v>5.866624985349009e-05</v>
+        <v>5.866624985349571e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>5.866624985349009e-05</v>
+        <v>5.866624985349571e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.67562499999987</v>
+        <v>35.67562499999988</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.479999999999997</v>
+        <v>8.479999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>32</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8561584055575928</v>
+        <v>0.8561584055575929</v>
       </c>
       <c r="B2" t="n">
         <v>0.05</v>
@@ -5324,7 +5324,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2649999999999999</v>
+        <v>0.265</v>
       </c>
     </row>
   </sheetData>
@@ -6149,19 +6149,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.027499999997</v>
+        <v>1648.027499999996</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1988.570135746601</v>
+        <v>1988.5701357466</v>
       </c>
       <c r="E2" t="n">
-        <v>1.986210389794643e-36</v>
+        <v>1.986210389794674e-36</v>
       </c>
       <c r="F2" t="n">
-        <v>1.986210389794643e-36</v>
+        <v>1.986210389794674e-36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6176,19 +6176,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>435.6074999999965</v>
+        <v>435.6074999999983</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1576.859728506773</v>
+        <v>1576.85972850678</v>
       </c>
       <c r="E3" t="n">
-        <v>8.475887024814612e-29</v>
+        <v>8.475887024814068e-29</v>
       </c>
       <c r="F3" t="n">
-        <v>8.475887024814612e-29</v>
+        <v>8.475887024814068e-29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6203,19 +6203,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2146.687500000003</v>
+        <v>2146.687500000006</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7770.814479638013</v>
+        <v>7770.814479638024</v>
       </c>
       <c r="E4" t="n">
-        <v>8.97824881027293e-40</v>
+        <v>8.978248810272748e-40</v>
       </c>
       <c r="F4" t="n">
-        <v>8.97824881027293e-40</v>
+        <v>8.978248810272748e-40</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6230,19 +6230,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.8374999999997</v>
+        <v>22.83749999999998</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>27.55656108597247</v>
+        <v>27.55656108597281</v>
       </c>
       <c r="E5" t="n">
-        <v>5.364419053003111e-09</v>
+        <v>5.364419053002352e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>5.364419053003111e-09</v>
+        <v>5.364419053002352e-09</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6257,19 +6257,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.6075000000008</v>
+        <v>111.6074999999998</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>134.6696832579194</v>
+        <v>134.6696832579182</v>
       </c>
       <c r="E6" t="n">
-        <v>3.1580163555305e-18</v>
+        <v>3.158016355530939e-18</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1580163555305e-18</v>
+        <v>3.158016355530939e-18</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6284,19 +6284,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.70749999999973</v>
+        <v>35.70749999999982</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>129.2579185520351</v>
+        <v>129.2579185520354</v>
       </c>
       <c r="E7" t="n">
-        <v>8.973406193418988e-13</v>
+        <v>8.973406193418686e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>8.973406193418988e-13</v>
+        <v>8.973406193418686e-13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -6311,19 +6311,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.41750000000008</v>
+        <v>37.41750000000015</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>45.14932126696838</v>
+        <v>45.14932126696846</v>
       </c>
       <c r="E8" t="n">
-        <v>1.323557041567088e-11</v>
+        <v>1.323557041567058e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>1.323557041567088e-11</v>
+        <v>1.323557041567058e-11</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -6855,19 +6855,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5268749999999988</v>
+        <v>0.5268749999999981</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>90.64516129032239</v>
+        <v>90.64516129032228</v>
       </c>
       <c r="E2" t="n">
-        <v>9.993593738829708e-16</v>
+        <v>9.993593738829898e-16</v>
       </c>
       <c r="F2" t="n">
-        <v>9.993593738829708e-16</v>
+        <v>9.993593738829898e-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6882,19 +6882,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5291999999999978</v>
+        <v>0.5291999999999975</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>273.1354838709667</v>
+        <v>273.1354838709665</v>
       </c>
       <c r="E3" t="n">
-        <v>3.15545195719851e-17</v>
+        <v>3.155451957198537e-17</v>
       </c>
       <c r="F3" t="n">
-        <v>3.15545195719851e-17</v>
+        <v>3.155451957198537e-17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6909,19 +6909,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6768750000000019</v>
+        <v>0.6768750000000002</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>349.3548387096785</v>
+        <v>349.3548387096776</v>
       </c>
       <c r="E4" t="n">
-        <v>8.809934592033072e-19</v>
+        <v>8.809934592033379e-19</v>
       </c>
       <c r="F4" t="n">
-        <v>8.809934592033072e-19</v>
+        <v>8.809934592033379e-19</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6936,19 +6936,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0127499999999998</v>
+        <v>0.01274999999999989</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.19354838709674</v>
+        <v>2.193548387096756</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1080023432659416</v>
+        <v>0.1080023432659394</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1080023432659416</v>
+        <v>0.1080023432659394</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6963,19 +6963,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001574999999999955</v>
+        <v>0.001575000000000012</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2709677419354762</v>
+        <v>0.270967741935486</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8458506648414372</v>
+        <v>0.845850664841431</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8458506648414372</v>
+        <v>0.845850664841431</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01920000000000012</v>
+        <v>0.01920000000000013</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9.909677419354903</v>
+        <v>9.90967741935491</v>
       </c>
       <c r="E7" t="n">
         <v>0.003547183084534093</v>
@@ -7017,19 +7017,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004499999999999815</v>
+        <v>0.0004499999999999915</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07741935483870652</v>
+        <v>0.07741935483870822</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9717529039429148</v>
+        <v>0.9717529039429136</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9717529039429148</v>
+        <v>0.9717529039429136</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>

--- a/ANOVA_Stat/all_responses_anova_results.xlsx
+++ b/ANOVA_Stat/all_responses_anova_results.xlsx
@@ -1,42 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RL_ANOVA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RL_LSD" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RL_Means" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SL_ANOVA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SL_LSD" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SL_Means" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="RFW_ANOVA" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="RFW_LSD" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="RFW_Means" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SFW_ANOVA" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SFW_LSD" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="SFW_Means" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="RDW_ANOVA" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="RDW_LSD" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="RDW_Means" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="SDW_ANOVA" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="SDW_LSD" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="SDW_Means" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Chl_a_ANOVA" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Chl_a_LSD" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Chl_a_Means" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Chl_b_ANOVA" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Chl_b_LSD" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Chl_b_Means" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="TC_content_ANOVA" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="TC_content_LSD" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="TC_content_Means" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Caroteniods_ANOVA" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Caroteniods_LSD" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Caroteniods_Means" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RL_ANOVA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RL_LSD" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RL_Means" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SL_ANOVA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SL_LSD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SL_Means" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RFW_ANOVA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RFW_LSD" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RFW_Means" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFW_ANOVA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFW_LSD" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFW_Means" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RDW_ANOVA" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RDW_LSD" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RDW_Means" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDW_ANOVA" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDW_LSD" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDW_Means" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_a_ANOVA" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_a_LSD" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_a_Means" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_b_ANOVA" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_b_LSD" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chl_b_Means" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC_content_ANOVA" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC_content_LSD" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC_content_Means" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Caroteniods_ANOVA" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Caroteniods_LSD" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Caroteniods_Means" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,19 +501,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1282.724999999993</v>
+        <v>1282.724999999997</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1449.406779661011</v>
+        <v>1449.406779661015</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0300705407293e-34</v>
+        <v>3.030070540729161e-34</v>
       </c>
       <c r="F2" t="n">
-        <v>3.0300705407293e-34</v>
+        <v>3.030070540729161e-34</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.9999999999988</v>
+        <v>362.9999999999974</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1230.508474576268</v>
+        <v>1230.508474576263</v>
       </c>
       <c r="E3" t="n">
-        <v>4.110236190107294e-27</v>
+        <v>4.110236190107538e-27</v>
       </c>
       <c r="F3" t="n">
-        <v>4.110236190107294e-27</v>
+        <v>4.110236190107538e-27</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>9367.347457627135</v>
+        <v>9367.347457627133</v>
       </c>
       <c r="E4" t="n">
-        <v>4.565685558455371e-41</v>
+        <v>4.565685558455381e-41</v>
       </c>
       <c r="F4" t="n">
-        <v>4.565685558455371e-41</v>
+        <v>4.565685558455381e-41</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.85499999999989</v>
+        <v>24.85499999999971</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>28.08474576271176</v>
+        <v>28.08474576271155</v>
       </c>
       <c r="E5" t="n">
-        <v>4.317301782271488e-09</v>
+        <v>4.317301782271846e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>4.317301782271488e-09</v>
+        <v>4.317301782271846e-09</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -609,19 +609,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.537500000000055</v>
+        <v>4.537499999999878</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5.127118644067862</v>
+        <v>5.127118644067662</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005216691538382271</v>
+        <v>0.005216691538383274</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005216691538382271</v>
+        <v>0.005216691538383274</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.187499999999854</v>
+        <v>9.187499999999886</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1440677966097</v>
+        <v>31.1440677966098</v>
       </c>
       <c r="E7" t="n">
-        <v>3.666294644519051e-06</v>
+        <v>3.666294644518959e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>3.666294644519051e-06</v>
+        <v>3.666294644518959e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -663,19 +663,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.13750000000022</v>
+        <v>17.13750000000014</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>19.36440677966128</v>
+        <v>19.36440677966119</v>
       </c>
       <c r="E8" t="n">
-        <v>2.41772681818952e-07</v>
+        <v>2.417726818189627e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>2.41772681818952e-07</v>
+        <v>2.417726818189627e-07</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.439999999999992</v>
+        <v>9.439999999999994</v>
       </c>
       <c r="C9" t="n">
         <v>32</v>
@@ -768,13 +768,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>208.2923976608182</v>
+        <v>208.2923976608183</v>
       </c>
       <c r="E2" t="n">
-        <v>4.538865482016044e-21</v>
+        <v>4.538865482016023e-21</v>
       </c>
       <c r="F2" t="n">
-        <v>4.538865482016044e-21</v>
+        <v>4.538865482016023e-21</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -789,19 +789,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8426999999999982</v>
+        <v>0.8426999999999959</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>394.2456140350869</v>
+        <v>394.2456140350859</v>
       </c>
       <c r="E3" t="n">
-        <v>1.478185838874739e-19</v>
+        <v>1.478185838874796e-19</v>
       </c>
       <c r="F3" t="n">
-        <v>1.478185838874739e-19</v>
+        <v>1.478185838874796e-19</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.244674999999998</v>
+        <v>2.244675000000009</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1050.140350877192</v>
+        <v>1050.140350877198</v>
       </c>
       <c r="E4" t="n">
-        <v>4.852489362518194e-26</v>
+        <v>4.852489362517821e-26</v>
       </c>
       <c r="F4" t="n">
-        <v>4.852489362518194e-26</v>
+        <v>4.852489362517821e-26</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -843,19 +843,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02804999999999973</v>
+        <v>0.02804999999999959</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.374269005847911</v>
+        <v>4.37426900584789</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01088350955961791</v>
+        <v>0.01088350955961814</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01088350955961791</v>
+        <v>0.01088350955961814</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -870,19 +870,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02587499999999998</v>
+        <v>0.02587500000000015</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.035087719298243</v>
+        <v>4.03508771929827</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01530601586988994</v>
+        <v>0.0153060158698895</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01530601586988994</v>
+        <v>0.0153060158698895</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002699999999999896</v>
+        <v>0.002699999999999918</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.263157894736794</v>
+        <v>1.263157894736804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2694150018401043</v>
+        <v>0.269415001840102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2694150018401043</v>
+        <v>0.269415001840102</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007049999999999882</v>
+        <v>0.00704999999999993</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.099415204678344</v>
+        <v>1.099415204678352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3636627978423226</v>
+        <v>0.3636627978423203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3636627978423226</v>
+        <v>0.3636627978423203</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1468,19 +1468,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.003867562499999983</v>
+        <v>0.003867562499999998</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>63.8606811145508</v>
+        <v>63.86068111455106</v>
       </c>
       <c r="E2" t="n">
-        <v>1.331904507480768e-13</v>
+        <v>1.331904507480698e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.331904507480768e-13</v>
+        <v>1.331904507480698e-13</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1495,19 +1495,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002310187499999993</v>
+        <v>0.00231018749999999</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>114.4365325077396</v>
+        <v>114.4365325077394</v>
       </c>
       <c r="E3" t="n">
-        <v>4.246372717839036e-12</v>
+        <v>4.246372717839131e-12</v>
       </c>
       <c r="F3" t="n">
-        <v>4.246372717839036e-12</v>
+        <v>4.246372717839131e-12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1522,19 +1522,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008347687500000017</v>
+        <v>0.008347687500000025</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>413.5077399380813</v>
+        <v>413.5077399380817</v>
       </c>
       <c r="E4" t="n">
-        <v>7.275968483402338e-20</v>
+        <v>7.275968483402225e-20</v>
       </c>
       <c r="F4" t="n">
-        <v>7.275968483402338e-20</v>
+        <v>7.275968483402225e-20</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1549,19 +1549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001235624999999997</v>
+        <v>0.0001235624999999991</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.040247678018571</v>
+        <v>2.040247678018561</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1279363381950814</v>
+        <v>0.1279363381950831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1279363381950814</v>
+        <v>0.1279363381950831</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1576,19 +1576,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.10625000000001e-05</v>
+        <v>1.10624999999997e-05</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1826625386996922</v>
+        <v>0.1826625386996855</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9073909521216246</v>
+        <v>0.9073909521216295</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9073909521216246</v>
+        <v>0.9073909521216295</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1603,19 +1603,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003466874999999987</v>
+        <v>0.000346687499999999</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>17.17337461300303</v>
+        <v>17.17337461300305</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002332476346103997</v>
+        <v>0.0002332476346103984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002332476346103997</v>
+        <v>0.0002332476346103984</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1630,19 +1630,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.006250000000003e-05</v>
+        <v>2.006250000000005e-05</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3312693498452017</v>
+        <v>0.3312693498452021</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8027654267313521</v>
+        <v>0.8027654267313503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8027654267313521</v>
+        <v>0.8027654267313503</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4_2_1</t>
+          <t>2_1_2</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2_1_2</t>
+          <t>4_2_1</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,19 +2174,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2496749999999996</v>
+        <v>0.249675</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>44.83501683501675</v>
+        <v>44.83501683501682</v>
       </c>
       <c r="E2" t="n">
-        <v>1.447811565106855e-11</v>
+        <v>1.447811565106829e-11</v>
       </c>
       <c r="F2" t="n">
-        <v>1.447811565106855e-11</v>
+        <v>1.447811565106829e-11</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2201,19 +2201,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03307499999999977</v>
+        <v>0.03307499999999995</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>17.81818181818169</v>
+        <v>17.81818181818179</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001874198073783667</v>
+        <v>0.0001874198073783608</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001874198073783667</v>
+        <v>0.0001874198073783608</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2228,19 +2228,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2790750000000001</v>
+        <v>0.2790750000000017</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>150.3434343434344</v>
+        <v>150.3434343434352</v>
       </c>
       <c r="E4" t="n">
-        <v>1.239803925189315e-13</v>
+        <v>1.239803925189218e-13</v>
       </c>
       <c r="F4" t="n">
-        <v>1.239803925189315e-13</v>
+        <v>1.239803925189218e-13</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002774999999999983</v>
+        <v>0.002774999999999968</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4983164983164952</v>
+        <v>0.4983164983164924</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6860767040346758</v>
+        <v>0.6860767040346776</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6860767040346758</v>
+        <v>0.6860767040346776</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2282,19 +2282,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003075000000000007</v>
+        <v>0.003074999999999984</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5521885521885534</v>
+        <v>0.5521885521885492</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6503728077597164</v>
+        <v>0.6503728077597197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6503728077597164</v>
+        <v>0.6503728077597197</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006075000000000053</v>
+        <v>0.006075000000000023</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3.272727272727301</v>
+        <v>3.272727272727285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07984435190893349</v>
+        <v>0.07984435190893424</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07984435190893349</v>
+        <v>0.07984435190893424</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2336,13 +2336,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0003750000000000087</v>
+        <v>0.0003750000000000063</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06734006734006891</v>
+        <v>0.06734006734006846</v>
       </c>
       <c r="E8" t="n">
         <v>0.976861250099844</v>
@@ -2880,19 +2880,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91810.49999999923</v>
+        <v>91810.49999999952</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>746.4268292682864</v>
+        <v>746.4268292682888</v>
       </c>
       <c r="E2" t="n">
-        <v>1.105745700417926e-29</v>
+        <v>1.10574570041787e-29</v>
       </c>
       <c r="F2" t="n">
-        <v>1.105745700417926e-29</v>
+        <v>1.10574570041787e-29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2907,19 +2907,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123627.0000000006</v>
+        <v>123626.9999999999</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3015.292682926843</v>
+        <v>3015.292682926826</v>
       </c>
       <c r="E3" t="n">
-        <v>3.075406568731077e-33</v>
+        <v>3.075406568731345e-33</v>
       </c>
       <c r="F3" t="n">
-        <v>3.075406568731077e-33</v>
+        <v>3.075406568731345e-33</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2934,19 +2934,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155951.9999999993</v>
+        <v>155952.0000000007</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3803.707317073154</v>
+        <v>3803.707317073187</v>
       </c>
       <c r="E4" t="n">
-        <v>7.736717895737056e-35</v>
+        <v>7.736717895735975e-35</v>
       </c>
       <c r="F4" t="n">
-        <v>7.736717895737056e-35</v>
+        <v>7.736717895735975e-35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8155.499999999989</v>
+        <v>8155.499999999971</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>66.3048780487804</v>
+        <v>66.30487804878025</v>
       </c>
       <c r="E5" t="n">
-        <v>7.967308535863049e-14</v>
+        <v>7.967308535863303e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>7.967308535863049e-14</v>
+        <v>7.967308535863303e-14</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2988,19 +2988,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158.500000000025</v>
+        <v>2158.499999999977</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>17.54878048780509</v>
+        <v>17.54878048780469</v>
       </c>
       <c r="E6" t="n">
-        <v>6.45071144622219e-07</v>
+        <v>6.450711446223603e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>6.45071144622219e-07</v>
+        <v>6.450711446223603e-07</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3015,19 +3015,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1452.000000000028</v>
+        <v>1452.000000000017</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>35.41463414634216</v>
+        <v>35.41463414634188</v>
       </c>
       <c r="E7" t="n">
-        <v>1.250815569167604e-06</v>
+        <v>1.25081556916769e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>1.250815569167604e-06</v>
+        <v>1.25081556916769e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3042,19 +3042,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2818.500000000024</v>
+        <v>2818.500000000015</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>22.91463414634166</v>
+        <v>22.91463414634158</v>
       </c>
       <c r="E8" t="n">
-        <v>4.151701108180485e-08</v>
+        <v>4.151701108180634e-08</v>
       </c>
       <c r="F8" t="n">
-        <v>4.151701108180485e-08</v>
+        <v>4.151701108180634e-08</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9033211855818007</v>
+        <v>0.9033211855818009</v>
       </c>
       <c r="B2" t="n">
         <v>0.05</v>
@@ -3649,19 +3649,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67080.74999999942</v>
+        <v>67080.74999999968</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>559.8810641627495</v>
+        <v>559.8810641627516</v>
       </c>
       <c r="E2" t="n">
-        <v>1.019575878926612e-27</v>
+        <v>1.019575878926549e-27</v>
       </c>
       <c r="F2" t="n">
-        <v>1.019575878926612e-27</v>
+        <v>1.019575878926549e-27</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3676,19 +3676,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242820.7500000004</v>
+        <v>242820.7499999997</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6080.018779342732</v>
+        <v>6080.018779342714</v>
       </c>
       <c r="E3" t="n">
-        <v>4.471880072189877e-38</v>
+        <v>4.471880072190091e-38</v>
       </c>
       <c r="F3" t="n">
-        <v>4.471880072189877e-38</v>
+        <v>4.471880072190091e-38</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3703,19 +3703,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167796.7499999999</v>
+        <v>167796.7500000006</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4201.483568075116</v>
+        <v>4201.483568075133</v>
       </c>
       <c r="E4" t="n">
-        <v>1.594985228391763e-35</v>
+        <v>1.59498522839166e-35</v>
       </c>
       <c r="F4" t="n">
-        <v>1.594985228391763e-35</v>
+        <v>1.59498522839166e-35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3730,19 +3730,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2616.749999999992</v>
+        <v>2616.749999999984</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>21.84037558685439</v>
+        <v>21.84037558685433</v>
       </c>
       <c r="E5" t="n">
-        <v>6.935245996261222e-08</v>
+        <v>6.935245996261444e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>6.935245996261222e-08</v>
+        <v>6.935245996261444e-08</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3757,19 +3757,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4350.750000000028</v>
+        <v>4350.749999999981</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>36.31298904538365</v>
+        <v>36.31298904538325</v>
       </c>
       <c r="E6" t="n">
-        <v>2.042543500267363e-10</v>
+        <v>2.042543500267637e-10</v>
       </c>
       <c r="F6" t="n">
-        <v>2.042543500267363e-10</v>
+        <v>2.042543500267637e-10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3784,19 +3784,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2610.750000000029</v>
+        <v>2610.750000000027</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>65.37089201878005</v>
+        <v>65.37089201878001</v>
       </c>
       <c r="E7" t="n">
-        <v>3.118699250487721e-09</v>
+        <v>3.118699250487747e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>3.118699250487721e-09</v>
+        <v>3.118699250487747e-09</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3811,19 +3811,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3606.750000000018</v>
+        <v>3606.750000000009</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>30.10328638497668</v>
+        <v>30.1032863849766</v>
       </c>
       <c r="E8" t="n">
-        <v>1.932410601520103e-09</v>
+        <v>1.932410601520162e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>1.932410601520103e-09</v>
+        <v>1.932410601520162e-09</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4355,19 +4355,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233978.9999999976</v>
+        <v>233978.9999999985</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1990.251993620395</v>
+        <v>1990.251993620402</v>
       </c>
       <c r="E2" t="n">
-        <v>1.959670362424347e-36</v>
+        <v>1.959670362424235e-36</v>
       </c>
       <c r="F2" t="n">
-        <v>1.959670362424347e-36</v>
+        <v>1.959670362424235e-36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -4382,19 +4382,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>724716.7500000028</v>
+        <v>724716.7500000002</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>18493.5693779905</v>
+        <v>18493.56937799044</v>
       </c>
       <c r="E3" t="n">
-        <v>8.797932537119924e-46</v>
+        <v>8.797932537120436e-46</v>
       </c>
       <c r="F3" t="n">
-        <v>8.797932537119924e-46</v>
+        <v>8.797932537120436e-46</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -4409,19 +4409,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679727.9999999997</v>
+        <v>679728.0000000023</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>17345.53110047846</v>
+        <v>17345.53110047853</v>
       </c>
       <c r="E4" t="n">
-        <v>2.448723981985439e-45</v>
+        <v>2.448723981985282e-45</v>
       </c>
       <c r="F4" t="n">
-        <v>2.448723981985439e-45</v>
+        <v>2.448723981985282e-45</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -4436,19 +4436,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6650.249999999951</v>
+        <v>6650.249999999902</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>56.56778309409847</v>
+        <v>56.56778309409805</v>
       </c>
       <c r="E5" t="n">
-        <v>6.860484232913091e-13</v>
+        <v>6.86048423291376e-13</v>
       </c>
       <c r="F5" t="n">
-        <v>6.860484232913091e-13</v>
+        <v>6.86048423291376e-13</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -4463,19 +4463,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25119.00000000021</v>
+        <v>25118.99999999986</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>213.6650717703368</v>
+        <v>213.6650717703337</v>
       </c>
       <c r="E6" t="n">
-        <v>3.081430669468146e-21</v>
+        <v>3.081430669468806e-21</v>
       </c>
       <c r="F6" t="n">
-        <v>3.081430669468146e-21</v>
+        <v>3.081430669468806e-21</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -4490,19 +4490,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30906.75000000017</v>
+        <v>30906.75000000025</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>788.6889952153153</v>
+        <v>788.6889952153175</v>
       </c>
       <c r="E7" t="n">
-        <v>4.070372734170572e-24</v>
+        <v>4.070372734170409e-24</v>
       </c>
       <c r="F7" t="n">
-        <v>4.070372734170572e-24</v>
+        <v>4.070372734170409e-24</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -4517,19 +4517,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19700.25000000017</v>
+        <v>19700.25000000007</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>167.5725677830955</v>
+        <v>167.5725677830947</v>
       </c>
       <c r="E8" t="n">
-        <v>1.214238450651069e-19</v>
+        <v>1.214238450651161e-19</v>
       </c>
       <c r="F8" t="n">
-        <v>1.214238450651069e-19</v>
+        <v>1.214238450651161e-19</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3_2_2</t>
+          <t>2_1_1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2_1_1</t>
+          <t>3_2_2</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5061,19 +5061,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.495624999996</v>
+        <v>1097.495624999997</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1380.49764150943</v>
+        <v>1380.497641509431</v>
       </c>
       <c r="E2" t="n">
-        <v>6.566269003654269e-34</v>
+        <v>6.566269003654185e-34</v>
       </c>
       <c r="F2" t="n">
-        <v>6.566269003654269e-34</v>
+        <v>6.566269003654185e-34</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -5088,19 +5088,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.976874999999835</v>
+        <v>6.976874999999821</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>26.32783018867863</v>
+        <v>26.32783018867858</v>
       </c>
       <c r="E3" t="n">
-        <v>1.357350490337913e-05</v>
+        <v>1.357350490337936e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>1.357350490337913e-05</v>
+        <v>1.357350490337936e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -5115,19 +5115,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1442.116875</v>
+        <v>1442.116875000007</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5441.950471698115</v>
+        <v>5441.950471698141</v>
       </c>
       <c r="E4" t="n">
-        <v>2.610697738691538e-37</v>
+        <v>2.61069773869134e-37</v>
       </c>
       <c r="F4" t="n">
-        <v>2.610697738691538e-37</v>
+        <v>2.61069773869134e-37</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -5142,19 +5142,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.320625000000014</v>
+        <v>6.320625000000022</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>7.950471698113226</v>
+        <v>7.950471698113238</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004225017041462566</v>
+        <v>0.000422501704146253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004225017041462566</v>
+        <v>0.000422501704146253</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -5169,19 +5169,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.750625000000012</v>
+        <v>2.750625000000102</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.459905660377374</v>
+        <v>3.459905660377488</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02767089173495749</v>
+        <v>0.02767089173495419</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02767089173495749</v>
+        <v>0.02767089173495419</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -5196,19 +5196,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.671874999999825</v>
+        <v>5.671874999999904</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>21.40330188679179</v>
+        <v>21.4033018867921</v>
       </c>
       <c r="E7" t="n">
-        <v>5.866624985349571e-05</v>
+        <v>5.866624985349009e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>5.866624985349571e-05</v>
+        <v>5.866624985349009e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.67562499999988</v>
+        <v>35.67562499999987</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.479999999999999</v>
+        <v>8.479999999999997</v>
       </c>
       <c r="C9" t="n">
         <v>32</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8561584055575929</v>
+        <v>0.8561584055575928</v>
       </c>
       <c r="B2" t="n">
         <v>0.05</v>
@@ -5324,7 +5324,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>0.265</v>
+        <v>0.2649999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6149,19 +6149,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.027499999996</v>
+        <v>1648.027499999997</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1988.5701357466</v>
+        <v>1988.570135746601</v>
       </c>
       <c r="E2" t="n">
-        <v>1.986210389794674e-36</v>
+        <v>1.986210389794643e-36</v>
       </c>
       <c r="F2" t="n">
-        <v>1.986210389794674e-36</v>
+        <v>1.986210389794643e-36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6176,19 +6176,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>435.6074999999983</v>
+        <v>435.6074999999965</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1576.85972850678</v>
+        <v>1576.859728506773</v>
       </c>
       <c r="E3" t="n">
-        <v>8.475887024814068e-29</v>
+        <v>8.475887024814612e-29</v>
       </c>
       <c r="F3" t="n">
-        <v>8.475887024814068e-29</v>
+        <v>8.475887024814612e-29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6203,19 +6203,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2146.687500000006</v>
+        <v>2146.687500000003</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7770.814479638024</v>
+        <v>7770.814479638013</v>
       </c>
       <c r="E4" t="n">
-        <v>8.978248810272748e-40</v>
+        <v>8.97824881027293e-40</v>
       </c>
       <c r="F4" t="n">
-        <v>8.978248810272748e-40</v>
+        <v>8.97824881027293e-40</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6230,19 +6230,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.83749999999998</v>
+        <v>22.8374999999997</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>27.55656108597281</v>
+        <v>27.55656108597247</v>
       </c>
       <c r="E5" t="n">
-        <v>5.364419053002352e-09</v>
+        <v>5.364419053003111e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>5.364419053002352e-09</v>
+        <v>5.364419053003111e-09</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6257,19 +6257,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.6074999999998</v>
+        <v>111.6075000000008</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>134.6696832579182</v>
+        <v>134.6696832579194</v>
       </c>
       <c r="E6" t="n">
-        <v>3.158016355530939e-18</v>
+        <v>3.1580163555305e-18</v>
       </c>
       <c r="F6" t="n">
-        <v>3.158016355530939e-18</v>
+        <v>3.1580163555305e-18</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6284,19 +6284,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.70749999999982</v>
+        <v>35.70749999999973</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>129.2579185520354</v>
+        <v>129.2579185520351</v>
       </c>
       <c r="E7" t="n">
-        <v>8.973406193418686e-13</v>
+        <v>8.973406193418988e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>8.973406193418686e-13</v>
+        <v>8.973406193418988e-13</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -6311,19 +6311,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.41750000000015</v>
+        <v>37.41750000000008</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>45.14932126696846</v>
+        <v>45.14932126696838</v>
       </c>
       <c r="E8" t="n">
-        <v>1.323557041567058e-11</v>
+        <v>1.323557041567088e-11</v>
       </c>
       <c r="F8" t="n">
-        <v>1.323557041567058e-11</v>
+        <v>1.323557041567088e-11</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -6855,19 +6855,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5268749999999981</v>
+        <v>0.5268749999999988</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>90.64516129032228</v>
+        <v>90.64516129032239</v>
       </c>
       <c r="E2" t="n">
-        <v>9.993593738829898e-16</v>
+        <v>9.993593738829708e-16</v>
       </c>
       <c r="F2" t="n">
-        <v>9.993593738829898e-16</v>
+        <v>9.993593738829708e-16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -6882,19 +6882,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5291999999999975</v>
+        <v>0.5291999999999978</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>273.1354838709665</v>
+        <v>273.1354838709667</v>
       </c>
       <c r="E3" t="n">
-        <v>3.155451957198537e-17</v>
+        <v>3.15545195719851e-17</v>
       </c>
       <c r="F3" t="n">
-        <v>3.155451957198537e-17</v>
+        <v>3.15545195719851e-17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -6909,19 +6909,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6768750000000002</v>
+        <v>0.6768750000000019</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>349.3548387096776</v>
+        <v>349.3548387096785</v>
       </c>
       <c r="E4" t="n">
-        <v>8.809934592033379e-19</v>
+        <v>8.809934592033072e-19</v>
       </c>
       <c r="F4" t="n">
-        <v>8.809934592033379e-19</v>
+        <v>8.809934592033072e-19</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -6936,19 +6936,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01274999999999989</v>
+        <v>0.0127499999999998</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.193548387096756</v>
+        <v>2.19354838709674</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1080023432659394</v>
+        <v>0.1080023432659416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1080023432659394</v>
+        <v>0.1080023432659416</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -6963,19 +6963,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001575000000000012</v>
+        <v>0.001574999999999955</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.270967741935486</v>
+        <v>0.2709677419354762</v>
       </c>
       <c r="E6" t="n">
-        <v>0.845850664841431</v>
+        <v>0.8458506648414372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.845850664841431</v>
+        <v>0.8458506648414372</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01920000000000013</v>
+        <v>0.01920000000000012</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9.90967741935491</v>
+        <v>9.909677419354903</v>
       </c>
       <c r="E7" t="n">
         <v>0.003547183084534093</v>
@@ -7017,19 +7017,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004499999999999915</v>
+        <v>0.0004499999999999815</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07741935483870822</v>
+        <v>0.07741935483870652</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9717529039429136</v>
+        <v>0.9717529039429148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9717529039429136</v>
+        <v>0.9717529039429148</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
